--- a/primes/120.xlsx
+++ b/primes/120.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sandbox\primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E5263-A98A-4FDD-8F8D-D8FFBD3AC0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212E6A0-4679-4818-ABA2-984B6EC1C5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="24" sheetId="3" r:id="rId1"/>
-    <sheet name="48" sheetId="1" r:id="rId2"/>
-    <sheet name="120" sheetId="2" r:id="rId3"/>
+    <sheet name="25" sheetId="3" r:id="rId1"/>
+    <sheet name="30" sheetId="5" r:id="rId2"/>
+    <sheet name="49" sheetId="1" r:id="rId3"/>
+    <sheet name="121" sheetId="2" r:id="rId4"/>
+    <sheet name="210" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
   <si>
     <t>4;1</t>
   </si>
@@ -123,6 +125,9 @@
   </si>
   <si>
     <t>rythm2,3,7</t>
+  </si>
+  <si>
+    <t>rythm2,3,5,7</t>
   </si>
 </sst>
 </file>
@@ -164,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,11 +182,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -190,34 +258,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -226,13 +286,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -515,14 +626,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E2640D-8030-47EA-9B2B-0611F443628E}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="7" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,13 +650,13 @@
       <c r="E1">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -578,29 +689,29 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11">
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -608,43 +719,42 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E6" s="7"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" t="s">
@@ -655,162 +765,162 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>2.1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="E8" s="7"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="E12" s="1"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="E13" s="1"/>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>4</v>
       </c>
     </row>
@@ -818,28 +928,28 @@
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="E14" s="1"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H15" s="6"/>
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -847,19 +957,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465718DD-4D13-403A-B976-94293FB6D102}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="7" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,16 +1003,16 @@
       <c r="E1">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -918,33 +1045,33 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -952,47 +1079,46 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="11"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="E6" s="7"/>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <v>2</v>
       </c>
       <c r="J6" t="s">
@@ -1003,181 +1129,181 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>2.1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11">
-        <v>4</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="E8" s="7"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="E12" s="1"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="E13" s="1"/>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1185,68 +1311,68 @@
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="E14" s="1"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>25</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>29</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>2</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1254,56 +1380,56 @@
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2</v>
-      </c>
-      <c r="H17" s="9">
-        <v>4</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>35</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>2</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2</v>
-      </c>
-      <c r="I18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>37</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1311,16 +1437,16 @@
       <c r="A20">
         <v>41</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1328,16 +1454,16 @@
       <c r="A21">
         <v>43</v>
       </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2</v>
-      </c>
-      <c r="H21" s="11">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1345,21 +1471,21 @@
       <c r="A22">
         <v>47</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H23" s="6"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1367,24 +1493,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D881613-E945-4E76-8864-52272703545B}">
-  <dimension ref="A1:K26"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="7" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>2</v>
       </c>
@@ -1397,23 +1528,26 @@
       <c r="E1">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1428,7 +1562,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1442,536 +1576,660 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>1</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="23">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2</v>
+      </c>
+      <c r="K7" s="23">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>2.1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11">
-        <v>4</v>
-      </c>
-      <c r="I8" s="11">
-        <v>4</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="E8" s="7"/>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15">
+        <v>4</v>
+      </c>
+      <c r="I8" s="31">
+        <v>4</v>
+      </c>
+      <c r="J8" s="23">
+        <v>4</v>
+      </c>
+      <c r="K8" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>2</v>
+      </c>
+      <c r="J10" s="23">
+        <v>2</v>
+      </c>
+      <c r="K10" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11">
-        <v>4</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2</v>
+      </c>
+      <c r="H11" s="22">
+        <v>4</v>
+      </c>
+      <c r="I11" s="21">
+        <v>4</v>
+      </c>
+      <c r="J11" s="23">
+        <v>4</v>
+      </c>
+      <c r="K11" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11">
-        <v>2</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+      <c r="J12" s="23">
+        <v>2</v>
+      </c>
+      <c r="K12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11">
-        <v>4</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" s="1"/>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>4</v>
+      </c>
+      <c r="J13" s="23">
+        <v>4</v>
+      </c>
+      <c r="K13" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="E14" s="1"/>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15">
         <v>6</v>
       </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>25</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E15" s="9"/>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>29</v>
       </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>2</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>2</v>
-      </c>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
+        <v>2</v>
+      </c>
+      <c r="H16" s="23">
+        <v>2</v>
+      </c>
+      <c r="I16" s="15">
+        <v>2</v>
+      </c>
+      <c r="J16" s="23">
+        <v>2</v>
+      </c>
+      <c r="K16" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2</v>
-      </c>
-      <c r="H17" s="9">
-        <v>4</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15">
         <v>6</v>
       </c>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="J17" s="23">
+        <v>6</v>
+      </c>
+      <c r="K17" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>35</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>2</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12">
         <v>37</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="23">
+        <v>4</v>
+      </c>
+      <c r="I19" s="17">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23">
+        <v>4</v>
+      </c>
+      <c r="K19" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>41</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>2</v>
-      </c>
-      <c r="H20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2</v>
-      </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="26">
+        <v>2</v>
+      </c>
+      <c r="H20" s="23">
+        <v>2</v>
+      </c>
+      <c r="I20" s="25">
+        <v>2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>2</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>43</v>
       </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2</v>
-      </c>
-      <c r="H21" s="11">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8">
-        <v>4</v>
-      </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+      <c r="H21" s="23">
+        <v>4</v>
+      </c>
+      <c r="I21" s="25">
+        <v>4</v>
+      </c>
+      <c r="J21" s="23">
+        <v>4</v>
+      </c>
+      <c r="K21" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>47</v>
       </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>2</v>
-      </c>
-      <c r="I22" s="9">
-        <v>2</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="K22" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>49</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>2</v>
-      </c>
-      <c r="H23" s="14">
-        <v>4</v>
-      </c>
-      <c r="I23" s="14">
-        <v>4</v>
-      </c>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19">
+        <v>4</v>
+      </c>
+      <c r="I23" s="19">
+        <v>4</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="20">
         <v>53</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2</v>
+      </c>
+      <c r="H24" s="19">
+        <v>2</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="19">
+        <v>2</v>
+      </c>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>55</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>2</v>
-      </c>
-      <c r="H25" s="15">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H26" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="H25" s="19">
+        <v>4</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="19">
+        <v>4</v>
+      </c>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59828E71-C0E9-486C-B746-B13F7B8583A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/primes/120.xlsx
+++ b/primes/120.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sandbox\primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4212E6A0-4679-4818-ABA2-984B6EC1C5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B265EC4-358F-4914-B74A-506B25992FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25" sheetId="3" r:id="rId1"/>
     <sheet name="30" sheetId="5" r:id="rId2"/>
     <sheet name="49" sheetId="1" r:id="rId3"/>
     <sheet name="121" sheetId="2" r:id="rId4"/>
-    <sheet name="210" sheetId="4" r:id="rId5"/>
+    <sheet name="169" sheetId="6" r:id="rId5"/>
+    <sheet name="210" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
   <si>
     <t>4;1</t>
   </si>
@@ -169,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +189,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -246,19 +265,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -289,11 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -302,46 +346,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -624,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E2640D-8030-47EA-9B2B-0611F443628E}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +703,7 @@
       <c r="C1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="27">
         <v>5</v>
       </c>
       <c r="E1">
@@ -660,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -675,7 +734,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -689,11 +748,17 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -707,15 +772,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -729,34 +792,33 @@
         <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="30"/>
       <c r="I6" t="s">
         <v>18</v>
       </c>
@@ -775,20 +837,20 @@
         <v>3</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -802,31 +864,31 @@
         <v>9</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="34">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -842,13 +904,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10" s="33">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14">
         <v>2</v>
       </c>
     </row>
@@ -866,13 +928,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
     </row>
@@ -890,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
         <v>2</v>
       </c>
     </row>
@@ -914,17 +976,17 @@
         <v>21</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>23</v>
       </c>
@@ -938,18 +1000,43 @@
         <v>22</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33">
+        <v>2</v>
+      </c>
+      <c r="H14" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H15" s="4"/>
+      <c r="A15" s="8">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D16" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,8 +1065,8 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,9 +1587,9 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1576,22 +1663,22 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1609,22 +1696,22 @@
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>1</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23">
-        <v>1</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1642,22 +1729,22 @@
         <v>8</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2</v>
-      </c>
-      <c r="I5" s="23">
-        <v>2</v>
-      </c>
-      <c r="J5" s="23">
-        <v>2</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1675,20 +1762,20 @@
         <v>10</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="23">
-        <v>2</v>
-      </c>
-      <c r="I6" s="23">
-        <v>2</v>
-      </c>
-      <c r="J6" s="23">
-        <v>2</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
+      <c r="K6" s="18">
         <v>2</v>
       </c>
       <c r="L6" t="s">
@@ -1709,29 +1796,29 @@
         <v>3</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>2</v>
-      </c>
-      <c r="H7" s="31">
-        <v>2</v>
-      </c>
-      <c r="I7" s="23">
-        <v>2</v>
-      </c>
-      <c r="J7" s="23">
-        <v>2</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
+      <c r="K7" s="18">
         <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1745,22 +1832,22 @@
         <v>9</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
-      <c r="H8" s="15">
-        <v>4</v>
-      </c>
-      <c r="I8" s="31">
-        <v>4</v>
-      </c>
-      <c r="J8" s="23">
-        <v>4</v>
-      </c>
-      <c r="K8" s="23">
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="28">
+        <v>4</v>
+      </c>
+      <c r="J8" s="18">
+        <v>4</v>
+      </c>
+      <c r="K8" s="18">
         <v>4</v>
       </c>
     </row>
@@ -1772,18 +1859,18 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1797,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="23">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <v>2</v>
-      </c>
-      <c r="I10" s="32">
-        <v>2</v>
-      </c>
-      <c r="J10" s="23">
-        <v>2</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="26">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+      <c r="K10" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1830,22 +1917,22 @@
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>2</v>
-      </c>
-      <c r="H11" s="22">
-        <v>4</v>
-      </c>
-      <c r="I11" s="21">
-        <v>4</v>
-      </c>
-      <c r="J11" s="23">
-        <v>4</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="26">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17">
+        <v>4</v>
+      </c>
+      <c r="J11" s="18">
+        <v>4</v>
+      </c>
+      <c r="K11" s="18">
         <v>4</v>
       </c>
     </row>
@@ -1863,22 +1950,22 @@
         <v>12</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
-        <v>2</v>
-      </c>
-      <c r="H12" s="22">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-      <c r="J12" s="23">
-        <v>2</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
+      <c r="K12" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1896,26 +1983,26 @@
         <v>21</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2</v>
-      </c>
-      <c r="H13" s="22">
-        <v>4</v>
-      </c>
-      <c r="I13" s="21">
-        <v>4</v>
-      </c>
-      <c r="J13" s="23">
-        <v>4</v>
-      </c>
-      <c r="K13" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="26">
+        <v>4</v>
+      </c>
+      <c r="I13" s="17">
+        <v>4</v>
+      </c>
+      <c r="J13" s="18">
+        <v>4</v>
+      </c>
+      <c r="K13" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1929,22 +2016,22 @@
         <v>22</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="19">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="19">
-        <v>2</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2</v>
+      </c>
+      <c r="I14" s="14">
         <v>6</v>
       </c>
-      <c r="J14" s="19">
-        <v>2</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="J14" s="10">
+        <v>2</v>
+      </c>
+      <c r="K14" s="18">
         <v>6</v>
       </c>
     </row>
@@ -1962,41 +2049,41 @@
         <v>14</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19">
-        <v>4</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19">
-        <v>4</v>
-      </c>
-      <c r="K15" s="24"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="10">
+        <v>4</v>
+      </c>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>29</v>
       </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <v>2</v>
-      </c>
-      <c r="H16" s="23">
-        <v>2</v>
-      </c>
-      <c r="I16" s="15">
-        <v>2</v>
-      </c>
-      <c r="J16" s="23">
-        <v>2</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="18">
+        <v>2</v>
+      </c>
+      <c r="K16" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2004,22 +2091,22 @@
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>2</v>
-      </c>
-      <c r="H17" s="19">
-        <v>4</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4</v>
+      </c>
+      <c r="I17" s="14">
         <v>6</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="18">
         <v>6</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="18">
         <v>6</v>
       </c>
     </row>
@@ -2031,43 +2118,43 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>2</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>37</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="23">
-        <v>4</v>
-      </c>
-      <c r="I19" s="17">
-        <v>4</v>
-      </c>
-      <c r="J19" s="23">
-        <v>4</v>
-      </c>
-      <c r="K19" s="26">
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>4</v>
+      </c>
+      <c r="I19" s="29">
+        <v>4</v>
+      </c>
+      <c r="J19" s="18">
+        <v>4</v>
+      </c>
+      <c r="K19" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2075,22 +2162,22 @@
       <c r="A20">
         <v>41</v>
       </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>2</v>
-      </c>
-      <c r="H20" s="23">
-        <v>2</v>
-      </c>
-      <c r="I20" s="25">
-        <v>2</v>
-      </c>
-      <c r="J20" s="23">
-        <v>2</v>
-      </c>
-      <c r="K20" s="26">
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2</v>
+      </c>
+      <c r="I20" s="29">
+        <v>2</v>
+      </c>
+      <c r="J20" s="18">
+        <v>2</v>
+      </c>
+      <c r="K20" s="20">
         <v>2</v>
       </c>
     </row>
@@ -2098,45 +2185,45 @@
       <c r="A21">
         <v>43</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>2</v>
-      </c>
-      <c r="H21" s="23">
-        <v>4</v>
-      </c>
-      <c r="I21" s="25">
-        <v>4</v>
-      </c>
-      <c r="J21" s="23">
-        <v>4</v>
-      </c>
-      <c r="K21" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2</v>
+      </c>
+      <c r="H21" s="18">
+        <v>4</v>
+      </c>
+      <c r="I21" s="29">
+        <v>4</v>
+      </c>
+      <c r="J21" s="18">
+        <v>4</v>
+      </c>
+      <c r="K21" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>47</v>
       </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>2</v>
-      </c>
-      <c r="H22" s="19">
-        <v>2</v>
-      </c>
-      <c r="I22" s="19">
-        <v>2</v>
-      </c>
-      <c r="J22" s="27">
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
         <v>6</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2150,43 +2237,43 @@
       <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="19">
-        <v>2</v>
-      </c>
-      <c r="H23" s="19">
-        <v>4</v>
-      </c>
-      <c r="I23" s="19">
-        <v>4</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="28"/>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10">
+        <v>4</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>53</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19">
-        <v>2</v>
-      </c>
-      <c r="H24" s="19">
-        <v>2</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19">
-        <v>2</v>
-      </c>
-      <c r="K24" s="30"/>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="10">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
@@ -2196,20 +2283,20 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19">
-        <v>2</v>
-      </c>
-      <c r="H25" s="19">
-        <v>4</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19">
-        <v>4</v>
-      </c>
-      <c r="K25" s="30"/>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="10">
+        <v>4</v>
+      </c>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H26" s="4"/>
@@ -2221,11 +2308,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4759A64D-AD1E-45A8-B570-68D60ABB0B15}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59828E71-C0E9-486C-B746-B13F7B8583A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
